--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,43 +519,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.9928769793824</v>
+        <v>2.878986666666667</v>
       </c>
       <c r="H2">
-        <v>7.9928769793824</v>
+        <v>8.63696</v>
       </c>
       <c r="I2">
-        <v>0.8767704113871271</v>
+        <v>0.2331567682967092</v>
       </c>
       <c r="J2">
-        <v>0.8767704113871271</v>
+        <v>0.2331567682967092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="N2">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.79342371482283</v>
+        <v>1.140681387875556</v>
       </c>
       <c r="R2">
-        <v>2.79342371482283</v>
+        <v>10.26613249088</v>
       </c>
       <c r="S2">
-        <v>0.8767704113871271</v>
+        <v>0.2331567682967092</v>
       </c>
       <c r="T2">
-        <v>0.8767704113871271</v>
+        <v>0.2331567682967092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,123 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>8.325812333333333</v>
+      </c>
+      <c r="H3">
+        <v>24.977437</v>
+      </c>
+      <c r="I3">
+        <v>0.6742717913773656</v>
+      </c>
+      <c r="J3">
+        <v>0.6742717913773655</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.3962093333333334</v>
+      </c>
+      <c r="N3">
+        <v>1.188628</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3.298764554048445</v>
+      </c>
+      <c r="R3">
+        <v>29.688880986436</v>
+      </c>
+      <c r="S3">
+        <v>0.6742717913773656</v>
+      </c>
+      <c r="T3">
+        <v>0.6742717913773655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.12339436779613</v>
-      </c>
-      <c r="H3">
-        <v>1.12339436779613</v>
-      </c>
-      <c r="I3">
-        <v>0.1232295886128728</v>
-      </c>
-      <c r="J3">
-        <v>0.1232295886128728</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.349489141648052</v>
-      </c>
-      <c r="N3">
-        <v>0.349489141648052</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.3926141333333255</v>
-      </c>
-      <c r="R3">
-        <v>0.3926141333333255</v>
-      </c>
-      <c r="S3">
-        <v>0.1232295886128728</v>
-      </c>
-      <c r="T3">
-        <v>0.1232295886128728</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.143059</v>
+      </c>
+      <c r="H4">
+        <v>3.429177</v>
+      </c>
+      <c r="I4">
+        <v>0.09257144032592537</v>
+      </c>
+      <c r="J4">
+        <v>0.09257144032592536</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.3962093333333334</v>
+      </c>
+      <c r="N4">
+        <v>1.188628</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.4528906443506667</v>
+      </c>
+      <c r="R4">
+        <v>4.076015799156</v>
+      </c>
+      <c r="S4">
+        <v>0.09257144032592537</v>
+      </c>
+      <c r="T4">
+        <v>0.09257144032592536</v>
       </c>
     </row>
   </sheetData>
